--- a/java_module/src/main/resources/xls_res.xlsx
+++ b/java_module/src/main/resources/xls_res.xlsx
@@ -37,15 +37,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +395,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
